--- a/data/trans_orig/P78A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>282498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>263666</v>
+        <v>262817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>295777</v>
+        <v>295472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8952393414324797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8355604409371936</v>
+        <v>0.8328696802342935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9373199656069801</v>
+        <v>0.9363531839625547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>552</v>
@@ -762,19 +762,19 @@
         <v>371936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353089</v>
+        <v>353233</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>386824</v>
+        <v>386144</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8142937110918197</v>
+        <v>0.8142937110918196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7730313564418898</v>
+        <v>0.7733457116904199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8468896650431407</v>
+        <v>0.8453996076923622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>842</v>
@@ -783,19 +783,19 @@
         <v>654434</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>630339</v>
+        <v>627666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>676267</v>
+        <v>674356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8473668225301084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8161684738645969</v>
+        <v>0.8127069749494579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8756358439818628</v>
+        <v>0.8731624251517525</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>33058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19779</v>
+        <v>20084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51890</v>
+        <v>52739</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1047606585675203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06268003439301989</v>
+        <v>0.06364681603744553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1644395590628064</v>
+        <v>0.1671303197657074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -833,19 +833,19 @@
         <v>84823</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69935</v>
+        <v>70615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103670</v>
+        <v>103526</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1857062889081804</v>
+        <v>0.1857062889081803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1531103349568594</v>
+        <v>0.1546003923076378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2269686435581101</v>
+        <v>0.2266542883095797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -854,19 +854,19 @@
         <v>117881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96048</v>
+        <v>97959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141976</v>
+        <v>144649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1526331774698916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1243641560181371</v>
+        <v>0.1268375748482478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1838315261354031</v>
+        <v>0.1872930250505421</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>405233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>384286</v>
+        <v>384235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>421440</v>
+        <v>421455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.903851310339661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8571303900996439</v>
+        <v>0.8570159144072933</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9400012257184807</v>
+        <v>0.940033310251719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>944</v>
@@ -979,19 +979,19 @@
         <v>582578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>560220</v>
+        <v>558312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>603933</v>
+        <v>604476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7707706459402133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7411906513889014</v>
+        <v>0.7386660482774917</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7990242384384131</v>
+        <v>0.7997431781415167</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1407</v>
@@ -1000,19 +1000,19 @@
         <v>987810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>958453</v>
+        <v>956738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1014329</v>
+        <v>1016827</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8203192664013145</v>
+        <v>0.8203192664013146</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7959393428692708</v>
+        <v>0.7945150609699203</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8423418276278234</v>
+        <v>0.8444159691795684</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>43107</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26900</v>
+        <v>26885</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64054</v>
+        <v>64105</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0961486896603389</v>
+        <v>0.09614868966033893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05999877428151924</v>
+        <v>0.05996668974828067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1428696099003557</v>
+        <v>0.1429840855927063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -1050,19 +1050,19 @@
         <v>173260</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151905</v>
+        <v>151362</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195618</v>
+        <v>197526</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2292293540597866</v>
+        <v>0.2292293540597867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2009757615615868</v>
+        <v>0.2002568218584834</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2588093486110986</v>
+        <v>0.2613339517225084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>230</v>
@@ -1071,19 +1071,19 @@
         <v>216368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>189849</v>
+        <v>187351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>245725</v>
+        <v>247440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1796807335986855</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1576581723721766</v>
+        <v>0.1555840308204317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2040606571307294</v>
+        <v>0.2054849390300797</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>339861</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>315973</v>
+        <v>316593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>360406</v>
+        <v>359995</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8123887744078937</v>
+        <v>0.8123887744078938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7552866649611946</v>
+        <v>0.7567704255850434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8614980203551467</v>
+        <v>0.8605148183283171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>681</v>
@@ -1196,19 +1196,19 @@
         <v>409343</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>386258</v>
+        <v>386790</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>429365</v>
+        <v>429119</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7295561681042653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6884121795527537</v>
+        <v>0.6893608206343429</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.765240692479763</v>
+        <v>0.7648020867426787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1108</v>
@@ -1217,19 +1217,19 @@
         <v>749204</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>718082</v>
+        <v>717934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>779913</v>
+        <v>779581</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.764936696662858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7331605983155278</v>
+        <v>0.7330101686796338</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7962903949494382</v>
+        <v>0.7959517515236012</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>78487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57942</v>
+        <v>58353</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102375</v>
+        <v>101755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1876112255921063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1385019796448533</v>
+        <v>0.1394851816716828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2447133350388052</v>
+        <v>0.2432295744149564</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -1267,19 +1267,19 @@
         <v>151742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131720</v>
+        <v>131966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174827</v>
+        <v>174295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2704438318957347</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2347593075202369</v>
+        <v>0.2351979132573214</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3115878204472463</v>
+        <v>0.310639179365657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>202</v>
@@ -1288,19 +1288,19 @@
         <v>230229</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>199520</v>
+        <v>199852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>261351</v>
+        <v>261499</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.235063303337142</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2037096050505606</v>
+        <v>0.2040482484763989</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2668394016844705</v>
+        <v>0.2669898313203662</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>311658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>288932</v>
+        <v>289358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>329964</v>
+        <v>332139</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8438644078282794</v>
+        <v>0.8438644078282798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7823318034422482</v>
+        <v>0.7834846649305425</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.893431074674318</v>
+        <v>0.8993201364922749</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>547</v>
@@ -1413,19 +1413,19 @@
         <v>328454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>306732</v>
+        <v>306636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>346034</v>
+        <v>346613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7600229360376847</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7097589832168373</v>
+        <v>0.709538846786218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8007028874267071</v>
+        <v>0.8020429263419495</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>930</v>
@@ -1434,19 +1434,19 @@
         <v>640111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>611955</v>
+        <v>609604</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>668502</v>
+        <v>667599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.798656831675061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7635259150387669</v>
+        <v>0.7605927978428573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8340789994006967</v>
+        <v>0.8329531684500733</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>57664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39358</v>
+        <v>37183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80390</v>
+        <v>79964</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1561355921717203</v>
+        <v>0.1561355921717204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.106568925325682</v>
+        <v>0.1006798635077252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2176681965577517</v>
+        <v>0.2165153350694572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -1484,19 +1484,19 @@
         <v>103709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86129</v>
+        <v>85550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125431</v>
+        <v>125527</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2399770639623152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.199297112573293</v>
+        <v>0.1979570736580504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2902410167831629</v>
+        <v>0.290461153213782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1505,19 +1505,19 @@
         <v>161374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132983</v>
+        <v>133886</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>189530</v>
+        <v>191881</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.201343168324939</v>
+        <v>0.2013431683249389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1659210005993031</v>
+        <v>0.1670468315499267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2364740849612333</v>
+        <v>0.2394072021571428</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>1339249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1299247</v>
+        <v>1298613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1379000</v>
+        <v>1375956</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8631600258106873</v>
+        <v>0.8631600258106871</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8373781584557842</v>
+        <v>0.8369700910398925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8887800673864278</v>
+        <v>0.886818153266402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2724</v>
@@ -1630,19 +1630,19 @@
         <v>1692311</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1646304</v>
+        <v>1650567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1733783</v>
+        <v>1734630</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.767193783659509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7463370736019846</v>
+        <v>0.7482694863827428</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.785995157161393</v>
+        <v>0.7863789788247978</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4287</v>
@@ -1651,19 +1651,19 @@
         <v>3031559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2973682</v>
+        <v>2979429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3085789</v>
+        <v>3086671</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8068215765961182</v>
+        <v>0.8068215765961181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7914180626236176</v>
+        <v>0.7929476474493918</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8212541487104776</v>
+        <v>0.8214890580135455</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>212316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172565</v>
+        <v>175609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252318</v>
+        <v>252952</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1368399741893127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1112199326135723</v>
+        <v>0.113181846733598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1626218415442157</v>
+        <v>0.1630299089601075</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>581</v>
@@ -1701,19 +1701,19 @@
         <v>513534</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472062</v>
+        <v>471215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>559541</v>
+        <v>555278</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2328062163404911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2140048428386066</v>
+        <v>0.2136210211752022</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2536629263980154</v>
+        <v>0.2517305136172572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>686</v>
@@ -1722,19 +1722,19 @@
         <v>725851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>671621</v>
+        <v>670739</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>783728</v>
+        <v>777981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1931784234038819</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1787458512895224</v>
+        <v>0.1785109419864544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2085819373763825</v>
+        <v>0.2070523525506081</v>
       </c>
     </row>
     <row r="18">
